--- a/app/Licenciatura_em_Ensino_de_Portugues_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Ensino_de_Portugues_Pos_Laboral.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="271">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Alzira Sitefane</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Ricardina Buque</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100091069F</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t>Leontina Joaquim Simbine</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110301639873C</t>
   </si>
   <si>
@@ -317,9 +308,6 @@
     <t>Sara Cossa Nuamusse</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110100061851N</t>
   </si>
   <si>
@@ -368,9 +356,6 @@
     <t>Minoja Wanga Manhice</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Casado</t>
   </si>
   <si>
@@ -599,9 +584,6 @@
     <t>Maria Andre Tsambe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110101137743M</t>
   </si>
   <si>
@@ -732,9 +714,6 @@
   </si>
   <si>
     <t>Chanola Againe</t>
-  </si>
-  <si>
-    <t>Distrito de Boane</t>
   </si>
   <si>
     <t>100101672948L</t>
@@ -2141,7 +2120,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2157,7 +2136,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2173,7 +2152,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2189,7 +2168,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2205,7 +2184,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2220,9 +2199,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2230,7 +2207,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2241,7 +2218,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2250,7 +2227,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2262,7 +2239,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2270,7 +2247,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2366,7 +2343,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2409,7 +2386,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2736,7 +2713,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2752,7 +2729,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2768,7 +2745,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2784,7 +2761,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2800,7 +2777,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2815,9 +2792,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2825,7 +2800,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2836,7 +2811,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2845,7 +2820,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2857,7 +2832,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2865,7 +2840,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2961,7 +2936,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3004,7 +2979,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3331,7 +3306,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3347,7 +3322,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3363,7 +3338,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3379,7 +3354,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3395,7 +3370,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3410,9 +3385,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3420,7 +3393,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3431,7 +3404,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3440,7 +3413,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3452,7 +3425,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3460,7 +3433,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3556,7 +3529,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3599,7 +3572,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3926,7 +3899,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3942,7 +3915,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3958,7 +3931,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3974,7 +3947,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3990,7 +3963,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4005,9 +3978,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4015,7 +3986,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4026,7 +3997,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4035,7 +4006,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4047,7 +4018,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4055,7 +4026,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4151,7 +4122,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4194,7 +4165,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4521,7 +4492,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4537,7 +4508,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4553,7 +4524,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4569,7 +4540,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4585,7 +4556,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4600,9 +4571,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4610,7 +4579,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4621,7 +4590,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4630,7 +4599,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4642,7 +4611,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4650,7 +4619,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4746,7 +4715,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4789,7 +4758,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5116,7 +5085,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5132,7 +5101,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5148,7 +5117,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5164,7 +5133,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5180,7 +5149,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5195,9 +5164,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5205,7 +5172,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5216,7 +5183,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5225,7 +5192,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5237,7 +5204,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5245,7 +5212,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5341,7 +5308,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5384,7 +5351,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5711,7 +5678,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5727,7 +5694,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5743,7 +5710,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5759,7 +5726,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5775,7 +5742,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5790,9 +5757,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5800,7 +5765,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5811,7 +5776,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5820,7 +5785,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5832,7 +5797,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5840,7 +5805,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5936,7 +5901,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5979,7 +5944,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6306,7 +6271,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6322,7 +6287,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6338,7 +6303,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6354,7 +6319,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6370,7 +6335,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6385,9 +6350,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6395,7 +6358,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6406,7 +6369,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6415,7 +6378,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6427,7 +6390,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6435,7 +6398,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6531,7 +6494,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6574,7 +6537,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6901,7 +6864,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6917,7 +6880,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6933,7 +6896,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6949,7 +6912,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6965,7 +6928,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6980,9 +6943,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>183</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6990,7 +6951,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7001,7 +6962,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7010,7 +6971,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7022,7 +6983,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7030,7 +6991,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7126,7 +7087,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7169,7 +7130,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7496,7 +7457,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7512,7 +7473,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7528,7 +7489,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7544,7 +7505,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7560,7 +7521,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7575,9 +7536,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7585,7 +7544,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7596,7 +7555,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7605,7 +7564,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7617,7 +7576,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7625,7 +7584,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7721,7 +7680,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7764,7 +7723,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8170,9 +8129,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8180,7 +8137,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8191,7 +8148,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8200,7 +8157,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8212,7 +8169,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8220,7 +8177,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8316,7 +8273,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8359,7 +8316,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8686,7 +8643,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8702,7 +8659,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8718,7 +8675,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8734,7 +8691,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8750,7 +8707,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8765,9 +8722,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>183</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8775,7 +8730,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8786,7 +8741,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8795,7 +8750,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8807,7 +8762,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8815,7 +8770,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8911,7 +8866,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8954,7 +8909,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9281,7 +9236,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9297,7 +9252,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9313,7 +9268,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9329,7 +9284,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9345,7 +9300,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9360,9 +9315,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9370,7 +9323,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9381,7 +9334,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9390,7 +9343,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9402,7 +9355,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9410,7 +9363,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9506,7 +9459,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9549,7 +9502,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9876,7 +9829,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9892,7 +9845,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9908,7 +9861,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9924,7 +9877,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9940,7 +9893,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9955,9 +9908,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9965,7 +9916,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9976,7 +9927,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9985,7 +9936,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9997,7 +9948,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10005,7 +9956,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10101,7 +10052,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10144,7 +10095,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10471,7 +10422,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10487,7 +10438,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10503,7 +10454,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10519,7 +10470,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10535,7 +10486,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10550,9 +10501,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10560,7 +10509,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10571,7 +10520,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10580,7 +10529,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10592,7 +10541,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10600,7 +10549,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10696,7 +10645,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10739,7 +10688,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11066,7 +11015,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11082,7 +11031,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11098,7 +11047,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11114,7 +11063,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11130,7 +11079,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11145,9 +11094,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>228</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11155,7 +11102,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11166,7 +11113,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11175,7 +11122,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11187,7 +11134,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11195,7 +11142,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11291,7 +11238,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11334,7 +11281,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11661,7 +11608,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11677,7 +11624,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11693,7 +11640,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11709,7 +11656,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11725,7 +11672,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11740,9 +11687,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11750,7 +11695,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11761,7 +11706,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11770,7 +11715,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11782,7 +11727,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11886,7 +11831,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11929,7 +11874,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12256,7 +12201,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12272,7 +12217,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12288,7 +12233,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12304,7 +12249,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12320,7 +12265,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12335,9 +12280,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12345,7 +12288,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12356,7 +12299,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12365,7 +12308,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12377,7 +12320,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12385,7 +12328,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12481,7 +12424,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12524,7 +12467,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12851,7 +12794,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12867,7 +12810,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12883,7 +12826,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12899,7 +12842,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12915,7 +12858,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12930,9 +12873,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12940,7 +12881,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12951,7 +12892,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12960,7 +12901,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12972,7 +12913,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12980,7 +12921,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13076,7 +13017,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13119,7 +13060,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13446,7 +13387,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13462,7 +13403,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13478,7 +13419,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13494,7 +13435,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13510,7 +13451,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13525,9 +13466,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13535,7 +13474,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13546,7 +13485,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13555,7 +13494,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13567,7 +13506,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13575,7 +13514,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13671,7 +13610,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13714,7 +13653,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14041,7 +13980,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14057,7 +13996,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14073,7 +14012,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14089,7 +14028,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14105,7 +14044,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14120,9 +14059,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14130,7 +14067,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14141,7 +14078,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14150,7 +14087,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14162,7 +14099,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14170,7 +14107,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14266,7 +14203,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14309,7 +14246,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14636,7 +14573,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14652,7 +14589,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14668,7 +14605,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14684,7 +14621,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14700,7 +14637,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14715,9 +14652,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14725,7 +14660,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14736,7 +14671,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14745,7 +14680,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14757,7 +14692,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14765,7 +14700,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14861,7 +14796,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14904,7 +14839,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15231,7 +15166,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15247,7 +15182,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15263,7 +15198,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15279,7 +15214,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15295,7 +15230,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15310,9 +15245,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15320,7 +15253,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15331,7 +15264,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15340,7 +15273,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15352,7 +15285,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15360,7 +15293,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15456,7 +15389,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15499,7 +15432,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15826,7 +15759,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15842,7 +15775,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15858,7 +15791,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15874,7 +15807,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15890,7 +15823,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15905,9 +15838,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15915,7 +15846,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15926,7 +15857,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15935,7 +15866,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15947,7 +15878,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16051,7 +15982,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16094,7 +16025,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16477,7 +16408,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16493,7 +16424,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16509,7 +16440,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16525,7 +16456,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16541,7 +16472,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16556,9 +16487,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16566,7 +16495,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16577,7 +16506,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16586,7 +16515,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16598,7 +16527,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16606,7 +16535,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16702,7 +16631,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16745,7 +16674,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17072,7 +17001,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17088,7 +17017,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17104,7 +17033,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17120,7 +17049,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17136,7 +17065,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17151,9 +17080,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17161,7 +17088,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17172,7 +17099,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17181,7 +17108,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17193,7 +17120,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17201,7 +17128,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17297,7 +17224,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17340,7 +17267,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17667,7 +17594,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17683,7 +17610,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17699,7 +17626,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17715,7 +17642,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17731,7 +17658,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17746,9 +17673,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17756,7 +17681,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17767,7 +17692,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17776,7 +17701,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17788,7 +17713,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17796,7 +17721,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17892,7 +17817,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17935,7 +17860,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18262,7 +18187,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18278,7 +18203,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18294,7 +18219,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18310,7 +18235,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18326,7 +18251,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18341,9 +18266,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18351,7 +18274,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18362,7 +18285,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18371,7 +18294,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18383,7 +18306,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18391,7 +18314,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18487,7 +18410,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18530,7 +18453,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18857,7 +18780,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18873,7 +18796,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18889,7 +18812,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18905,7 +18828,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18921,7 +18844,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18936,9 +18859,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18946,7 +18867,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18957,7 +18878,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18966,7 +18887,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18978,7 +18899,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18986,7 +18907,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19082,7 +19003,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19125,7 +19046,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19452,7 +19373,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19468,7 +19389,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19484,7 +19405,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19500,7 +19421,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19516,7 +19437,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19531,9 +19452,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19541,7 +19460,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19552,7 +19471,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19561,7 +19480,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19573,7 +19492,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19581,7 +19500,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19677,7 +19596,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19720,7 +19639,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
